--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3847332.887213013</v>
+        <v>3841611.275245126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>173.0310041287607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.4096945586805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>57.50343408519502</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>124.0312919752491</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>217.8056140384016</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.3273452660825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>205.3743261851598</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>59.22416934614329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.9880742340852</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>125.0893023268217</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785981</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734080389</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249702</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>112.0393371779077</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>9.960678120154483</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>10.20389322926594</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>13.89072837997162</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>153.0265650399446</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>138.2178776215696</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.73855544971691</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>191.7565949082224</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>97.27989568773809</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>31.73783249628712</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>207.6051439140965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>11.7671037116294</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.4605619984703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.781606227855</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.781606227855</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415667</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.86495770989</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2318.103172347981</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.103172347981</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W5" t="n">
-        <v>1965.334517077867</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.868758816787</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500979</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500979</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500979</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239899</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>261.3917961488088</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1325.901864535769</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1325.901864535769</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1097.912313637752</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.1197344942216</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5257,46 +5257,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1072.13963479646</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>903.203451868553</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>753.0868124562172</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>605.1737188738241</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>458.2837713759137</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5472,16 +5472,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.788099626699</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1253.788099626699</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>1253.788099626699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,40 +5503,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366027</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,46 +5597,46 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
         <v>1138.808109517387</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>725.3071882816349</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5673,13 +5673,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1740.160178229079</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.057311354722</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.372823148835</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>906.9556531118747</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>906.9556531118747</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.9556531118747</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,10 +5740,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089256</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196075</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094646</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>817.4551465905733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>817.4551465905733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5910,52 +5910,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>999.1036114208117</v>
       </c>
       <c r="W22" t="n">
-        <v>999.1036114208131</v>
+        <v>709.6864413838512</v>
       </c>
       <c r="X22" t="n">
-        <v>999.1036114208131</v>
+        <v>481.6968904858338</v>
       </c>
       <c r="Y22" t="n">
-        <v>999.1036114208131</v>
+        <v>260.9043113423037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>416.1091927888606</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.83252492416</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172569</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.1512925299518</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2151096020449</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>420.2151096020449</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1445.473983799872</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.20647829517</v>
+        <v>1190.789495593985</v>
       </c>
       <c r="W25" t="n">
-        <v>998.7893082582088</v>
+        <v>901.3723255570246</v>
       </c>
       <c r="X25" t="n">
-        <v>770.7997573601915</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y25" t="n">
-        <v>770.7997573601915</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,10 +6232,10 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1076.848340014666</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844494</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
         <v>2602.177459903276</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.9597618327374</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C28" t="n">
-        <v>784.0235789048305</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.085294012394</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.085294012394</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1355.400805806507</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.400805806507</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X28" t="n">
-        <v>1355.400805806507</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y28" t="n">
-        <v>1134.608226662977</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272052</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330834</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660289</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161936</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,13 +6782,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6797,34 +6797,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>630.8674397712582</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>630.8674397712582</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>630.8674397712582</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>482.9543461888651</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>482.9543461888651</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>315.251509563584</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>169.0343227814418</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987876</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.725653781989</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1033.308483745028</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>812.5159046014979</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6928,46 +6928,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686435</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.827767043613</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -7007,22 +7007,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,7 +7031,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3627.778070649844</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C37" t="n">
-        <v>3458.841887721937</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D37" t="n">
-        <v>3308.725248309602</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246547</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>4586.365838246547</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>4392.672308036222</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4137.987819830335</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3848.570649793374</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3848.570649793374</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3627.778070649844</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1768.250487965527</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.827124689058</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V40" t="n">
-        <v>1523.103642431788</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W40" t="n">
-        <v>1523.103642431788</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7417,31 +7417,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N41" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O41" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.1538185715858</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1538185715858</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1538185715858</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>442.2122352345021</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>295.3222877365918</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>127.6194511113107</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X43" t="n">
-        <v>410.1538185715858</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.1538185715858</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1897.676284104189</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7724,13 +7724,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>485.9938459101016</v>
+        <v>814.7290857654818</v>
       </c>
       <c r="C46" t="n">
-        <v>485.9938459101016</v>
+        <v>645.792902837575</v>
       </c>
       <c r="D46" t="n">
-        <v>485.9938459101016</v>
+        <v>645.792902837575</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>497.8798092551818</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>350.9898617572715</v>
       </c>
       <c r="G46" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145538</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X46" t="n">
-        <v>667.6423107403414</v>
+        <v>1217.170129739252</v>
       </c>
       <c r="Y46" t="n">
-        <v>667.6423107403414</v>
+        <v>996.3775505957216</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>295.4822118493981</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>316.9032015413812</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>105.1996354507097</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>288.0478149561054</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>344.7025836476861</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6211785616914</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.83833503974995e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9990175570107</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.630896635343959</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.48321557772579</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>241.933812917824</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>361.281923749208</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.894316775182673e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.53663776704107</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P38" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>344.7025836476848</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>297.8289162490798</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.9134739776847</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.03773402494299</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.45964694934754</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696713</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>36.57613584030469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.4732845264147</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.5057621597712</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>152.1350798790566</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.52238423622458</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>81.33107165459955</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>23.61386496012118</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>94.4552432973905</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>92.48912964370381</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>113.0171824180337</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.10451147494064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>154.2587045473988</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.24909339056688</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="F2" t="n">
         <v>754455.3950852678</v>
@@ -26331,28 +26331,28 @@
         <v>754455.3950852678</v>
       </c>
       <c r="H2" t="n">
+        <v>754455.3950852677</v>
+      </c>
+      <c r="I2" t="n">
+        <v>754455.3950852677</v>
+      </c>
+      <c r="J2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="I2" t="n">
-        <v>754455.3950852681</v>
-      </c>
-      <c r="J2" t="n">
-        <v>754455.3950852678</v>
-      </c>
       <c r="K2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.395085268</v>
       </c>
       <c r="L2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852673</v>
       </c>
       <c r="M2" t="n">
         <v>754455.3950852676</v>
       </c>
       <c r="N2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="O2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.395085268</v>
       </c>
       <c r="P2" t="n">
         <v>754455.3950852675</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918987</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918997</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.9627640128</v>
+        <v>-76185.96276401295</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505318</v>
+        <v>513781.9164505317</v>
       </c>
       <c r="D6" t="n">
         <v>513781.9164505315</v>
       </c>
       <c r="E6" t="n">
-        <v>-87454.02948104221</v>
+        <v>-88125.98438330031</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101064</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101067</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123639</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123645</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197715</v>
+        <v>462828.2104175127</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101065</v>
       </c>
       <c r="L6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101058</v>
       </c>
       <c r="M6" t="n">
-        <v>510281.0696734193</v>
+        <v>509609.1147711613</v>
       </c>
       <c r="N6" t="n">
-        <v>639923.384512364</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="O6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101065</v>
       </c>
       <c r="P6" t="n">
-        <v>639923.3845123639</v>
+        <v>639251.429610106</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,10 +26755,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,19 +26977,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>209.7028375347198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.82824409737304</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>91.11203893301735</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>92.41702838240867</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>33.41855346988768</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915264</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>169.9105933899711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>46.76331713866816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>751.0723262417303</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35655,19 +35655,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>869.2050369542927</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>644.1207512809365</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690164</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>883.6236994779125</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499108</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>323.7860185257234</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265653</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>463.2210110276761</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906373</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>780.8549287480508</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>913.5837591621195</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>318.3309425707607</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P38" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37785,10 +37785,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779116</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37800,10 +37800,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>836.7500320793066</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3841611.275245126</v>
+        <v>3845016.766369575</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.0310041287607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>230.1381455316667</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>140.9971593390833</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>217.8056140384016</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>131.8380910789863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>60.46179076613138</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586857</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.90320919298897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>49.76588848769011</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206842</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785981</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734080389</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249702</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>208.2711770227061</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>219.4915577433405</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.20389322926594</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>13.89072837997162</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>138.2178776215696</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589034</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417093</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.27989568773809</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H43" t="n">
-        <v>31.73783249628712</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.7671037116294</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="3">
@@ -4549,22 +4549,22 @@
         <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,13 +4591,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="U5" t="n">
         <v>2245.937243117025</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>232.7692952219031</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4795,61 +4795,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5053,7 +5053,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,37 +5123,37 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157126</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878057</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>323.7721631878057</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>323.7721631878057</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0693265625247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>761.2732940845638</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,16 +5278,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
         <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.715908442899</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N14" t="n">
         <v>3044.228895027648</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.665188117619</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366027</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037952</v>
+        <v>2274.668463554308</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903278</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.070220408989</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,34 +5612,34 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5673,13 +5673,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5691,19 +5691,19 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
         <v>1270.093287563029</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
         <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294614</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353396</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5910,13 +5910,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5928,34 +5928,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208117</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838512</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858338</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423037</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.60335981148</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799872</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593985</v>
+        <v>942.2489981990353</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570246</v>
+        <v>942.2489981990353</v>
       </c>
       <c r="X25" t="n">
-        <v>891.0653626991802</v>
+        <v>942.2489981990353</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>721.4564190555052</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>460.1767209741892</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1726.898991062666</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454626</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474453</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,7 +6782,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
@@ -7010,19 +7010,19 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,7 +7122,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1559.196154437386</v>
@@ -7140,7 +7140,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7168,10 +7168,10 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,37 +7189,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7250,10 +7250,10 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1768.250487965527</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1002.69651745481</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>713.2793474178488</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>485.2897965198315</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>264.4972173763014</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7417,46 +7417,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294614</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353396</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.1253288168953</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C43" t="n">
-        <v>590.1253288168953</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D43" t="n">
-        <v>590.1253288168953</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E43" t="n">
-        <v>442.2122352345021</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F43" t="n">
-        <v>295.3222877365918</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G43" t="n">
-        <v>127.6194511113107</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1509.973093725643</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.555923688682</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>992.5663727906651</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>771.773793647135</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7654,13 +7654,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>814.7290857654818</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>645.792902837575</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>645.792902837575</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>497.8798092551818</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9898617572715</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1734.57685067423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1445.159680637269</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>1217.170129739252</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>996.3775505957216</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>316.9032015413812</v>
+        <v>316.9032015413819</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>229.1155640189945</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>288.0478149561054</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>344.7025836476861</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83833503974995e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476849</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M41" t="n">
-        <v>344.7025836476848</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>84.8518057213318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>175.943766901347</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>17.43847836633105</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>32.64608558048755</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>215.5057621597712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>152.1350798790566</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.33107165459955</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3466769161725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.48912964370381</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H43" t="n">
-        <v>113.0171824180337</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>154.2587045473988</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26316,16 +26316,16 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852675</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.395085268</v>
       </c>
       <c r="G2" t="n">
         <v>754455.3950852678</v>
@@ -26334,19 +26334,19 @@
         <v>754455.3950852677</v>
       </c>
       <c r="I2" t="n">
+        <v>754455.3950852671</v>
+      </c>
+      <c r="J2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="K2" t="n">
+        <v>754455.3950852674</v>
+      </c>
+      <c r="L2" t="n">
         <v>754455.3950852677</v>
       </c>
-      <c r="J2" t="n">
-        <v>754455.3950852676</v>
-      </c>
-      <c r="K2" t="n">
-        <v>754455.395085268</v>
-      </c>
-      <c r="L2" t="n">
-        <v>754455.3950852673</v>
-      </c>
       <c r="M2" t="n">
-        <v>754455.3950852676</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="N2" t="n">
         <v>754455.3950852676</v>
@@ -26355,7 +26355,7 @@
         <v>754455.395085268</v>
       </c>
       <c r="P2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852678</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.49231918997</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918996</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918992</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231919003</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26490,7 +26490,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401295</v>
+        <v>-76185.96276401292</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505317</v>
+        <v>513781.9164505313</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505315</v>
+        <v>513781.9164505316</v>
       </c>
       <c r="E6" t="n">
-        <v>-88125.98438330031</v>
+        <v>-87521.22497126873</v>
       </c>
       <c r="F6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.1890221388</v>
       </c>
       <c r="G6" t="n">
-        <v>639251.4296101067</v>
+        <v>639856.1890221386</v>
       </c>
       <c r="H6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.1890221384</v>
       </c>
       <c r="I6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.1890221378</v>
       </c>
       <c r="J6" t="n">
-        <v>462828.2104175127</v>
+        <v>463432.9698295455</v>
       </c>
       <c r="K6" t="n">
-        <v>639251.4296101065</v>
+        <v>639856.189022138</v>
       </c>
       <c r="L6" t="n">
-        <v>639251.4296101058</v>
+        <v>639856.1890221384</v>
       </c>
       <c r="M6" t="n">
-        <v>509609.1147711613</v>
+        <v>510213.8741831937</v>
       </c>
       <c r="N6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.189022138</v>
       </c>
       <c r="O6" t="n">
-        <v>639251.4296101065</v>
+        <v>639856.1890221386</v>
       </c>
       <c r="P6" t="n">
-        <v>639251.429610106</v>
+        <v>639856.1890221385</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.7028375347198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>21.08602197662259</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>33.41855346988825</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>33.41855346988768</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>35.4717111800646</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>155.9865295915264</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060687</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.170548798168401e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>869.2050369542927</v>
+        <v>869.2050369542932</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>684.7056784113264</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>840.3496503690164</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509642</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.109295463624</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>883.6236994779125</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923318</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359038</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359038</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359038</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37785,10 +37785,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M41" t="n">
-        <v>883.6236994779116</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
